--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_20.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83896.23157678742</v>
+        <v>116250.3695341525</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>104.5113366705988</v>
+        <v>349.3397092300172</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554016</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>9.461970681989568</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.20988753395254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>169.7751448242505</v>
       </c>
       <c r="W5" t="n">
-        <v>160.8414817298841</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554016</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>17.13267830033029</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1075,7 +1075,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>17.49690079789916</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>11.39108932486054</v>
+        <v>11.39108932486009</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F10" t="n">
-        <v>17.13267830033029</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1312,7 +1312,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>316.578988699947</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>334.5817096732201</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1531,25 +1531,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>134.6751203255737</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>70.11928264603833</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>269.5134569480836</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>134.6751203255737</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>155.3197306044667</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -1786,7 +1786,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>189.5968436493441</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>355.546756558266</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.8984061512187</v>
       </c>
       <c r="U22" t="n">
-        <v>248.0596779397534</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,22 +2318,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.0313798843944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>323.9918595228955</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,22 +2476,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>139.4363092953496</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>21.74154667972173</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2570,7 +2570,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>209.5972717395344</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>204.7865225372089</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>43.31785343913997</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>189.596843649344</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,13 +2798,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228957</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>182.2655480687728</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2886,7 +2886,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
         <v>61.42221998250818</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>337.5440355849936</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>194.8806712903671</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -3089,13 +3089,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3156,7 +3156,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3187,25 +3187,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>12.62825841548294</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>223.1498336210772</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,19 +3272,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>64.76266795804011</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,16 +3311,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3475,16 +3475,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>42.55249764492844</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3664,16 +3664,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>48.68278626299302</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>112.7016475500166</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>323.9918595228953</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>33.83094574014091</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3940,22 +3940,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>190.2713935802969</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>323.9918595228957</v>
+        <v>284.56151600587</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4186,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.1622158054972</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.5099885583431</v>
+        <v>2307.009759042411</v>
       </c>
       <c r="C2" t="n">
-        <v>53.94298182036447</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036447</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036447</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036447</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036447</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4343,37 +4343,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129471</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982766</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.1098286224649</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170839</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359569</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747056</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.373795869721</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890065</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504894</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.50052796378827</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036447</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036447</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036447</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036447</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036447</v>
+        <v>381.5656062325725</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036447</v>
+        <v>223.8172336651026</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036447</v>
+        <v>87.48832276375086</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406186</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406186</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>352.6741383092203</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>63.50052796378827</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>63.50052796378827</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>63.50052796378827</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X4" t="n">
-        <v>63.50052796378827</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.50052796378827</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.637173372437</v>
+        <v>1320.425425970681</v>
       </c>
       <c r="C5" t="n">
-        <v>565.6746564320254</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="D5" t="n">
-        <v>207.4089578252748</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E5" t="n">
         <v>207.4089578252748</v>
@@ -4562,16 +4562,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834949</v>
+        <v>2470.630356271695</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.84210367345</v>
+        <v>2470.630356271695</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.37634541237</v>
+        <v>2097.164598010615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.237013436559</v>
+        <v>1707.025266034803</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170839</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359569</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747056</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517454</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152627</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>579.9823256406186</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C7" t="n">
-        <v>579.9823256406186</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D7" t="n">
-        <v>579.9823256406186</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E7" t="n">
-        <v>562.6765899837193</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406186</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406186</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406186</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406186</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406186</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406186</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406186</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.9823256406186</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>546.1098286224644</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C8" t="n">
-        <v>546.1098286224644</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D8" t="n">
-        <v>546.1098286224644</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E8" t="n">
-        <v>546.1098286224644</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F8" t="n">
-        <v>546.1098286224644</v>
+        <v>546.109828622464</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,16 +4799,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,10 +4820,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,10 +4832,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
         <v>1662.48357412947</v>
@@ -4844,10 +4844,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982761</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.1098286224644</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>579.9823256406186</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
         <v>562.6765899837193</v>
@@ -4954,58 +4954,58 @@
         <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1208.982837814967</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C11" t="n">
-        <v>1208.982837814967</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D11" t="n">
-        <v>850.7171392082163</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="E11" t="n">
-        <v>464.928886609972</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036446</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224076</v>
@@ -5051,40 +5051,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>2359.18776811598</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X11" t="n">
-        <v>1985.7220098549</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y11" t="n">
-        <v>1595.582677879089</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="12">
@@ -5115,16 +5115,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
         <v>1194.968834417902</v>
@@ -5139,7 +5139,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>698.7120650600564</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E13" t="n">
-        <v>698.7120650600564</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>261.0994509500377</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.915471247702</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C14" t="n">
         <v>1122.952954307291</v>
@@ -5261,19 +5261,19 @@
         <v>1122.952954307291</v>
       </c>
       <c r="E14" t="n">
-        <v>737.1647017090463</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F14" t="n">
-        <v>326.1787969194388</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533142</v>
@@ -5282,22 +5282,22 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
         <v>2642.120401548716</v>
@@ -5352,7 +5352,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5364,16 +5364,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="C16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="D16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="E16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="G16" t="n">
         <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="U16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="V16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="W16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="X16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="Y16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942403</v>
       </c>
     </row>
     <row r="17">
@@ -5513,13 +5513,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5598,10 +5598,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5613,28 +5613,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5677,40 +5677,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>536.6170209242687</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>281.9325327183818</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036445</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1577.945354755379</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C20" t="n">
-        <v>1208.982837814967</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D20" t="n">
-        <v>850.7171392082163</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>824.0670245476144</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036446</v>
+        <v>413.0811197580069</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>2354.684526795312</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1964.5451948195</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5844,10 +5844,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222.8791647482714</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036446</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036446</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036446</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>2408.70101209764</v>
       </c>
       <c r="U22" t="n">
-        <v>477.5636529541582</v>
+        <v>2408.70101209764</v>
       </c>
       <c r="V22" t="n">
-        <v>222.8791647482714</v>
+        <v>2408.70101209764</v>
       </c>
       <c r="W22" t="n">
-        <v>222.8791647482714</v>
+        <v>2408.70101209764</v>
       </c>
       <c r="X22" t="n">
-        <v>222.8791647482714</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.8791647482714</v>
+        <v>2180.711461199623</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1219.679656148628</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C23" t="n">
-        <v>850.7171392082163</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082163</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036446</v>
+        <v>783.1896006574873</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6005,34 +6005,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2369.884586449642</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X23" t="n">
-        <v>1996.418828188562</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y23" t="n">
-        <v>1606.27949621275</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6072,19 +6072,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2497.624355043684</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="C25" t="n">
-        <v>2497.624355043684</v>
+        <v>2313.924484908478</v>
       </c>
       <c r="D25" t="n">
-        <v>2497.624355043684</v>
+        <v>2163.807845496142</v>
       </c>
       <c r="E25" t="n">
-        <v>2349.711261461291</v>
+        <v>2163.807845496142</v>
       </c>
       <c r="F25" t="n">
-        <v>2349.711261461291</v>
+        <v>2163.807845496142</v>
       </c>
       <c r="G25" t="n">
-        <v>2180.711461199623</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
         <v>2022.963088632153</v>
@@ -6151,46 +6151,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>2667.732171871845</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>2519.585513306029</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>2497.624355043684</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T25" t="n">
-        <v>2497.624355043684</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="U25" t="n">
-        <v>2497.624355043684</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="V25" t="n">
-        <v>2497.624355043684</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="W25" t="n">
-        <v>2497.624355043684</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="X25" t="n">
-        <v>2497.624355043684</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="Y25" t="n">
-        <v>2497.624355043684</v>
+        <v>2482.860667836385</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1241.158393318536</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C26" t="n">
-        <v>1241.158393318536</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="D26" t="n">
-        <v>882.8926947117852</v>
+        <v>1480.395363208549</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>1094.607110610305</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>683.6212058206972</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>265.6573977188841</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036446</v>
@@ -6230,13 +6230,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990286</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.752638628377</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V26" t="n">
-        <v>2017.897565358469</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W26" t="n">
-        <v>2017.897565358469</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X26" t="n">
-        <v>2017.897565358469</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y26" t="n">
-        <v>1627.758233382657</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204945</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M27" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6348,7 +6348,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C28" t="n">
         <v>53.94298182036446</v>
@@ -6388,46 +6388,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X28" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y28" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.94416071721</v>
+        <v>833.8914035503838</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776798</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776798</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785536</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889461</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036446</v>
@@ -6461,13 +6461,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6488,25 +6488,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018223</v>
+        <v>2336.864989121511</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018223</v>
+        <v>1984.096333851397</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1610.630575590317</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1220.491243614505</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6540,25 +6540,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6585,7 +6585,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6625,37 +6625,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U31" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036446</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="W31" t="n">
         <v>53.94298182036446</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1662.48357412947</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="C32" t="n">
-        <v>1293.521057189058</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D32" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E32" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
@@ -6701,10 +6701,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6716,34 +6716,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834949</v>
+        <v>2500.29992809866</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.546461473041</v>
+        <v>2246.538142736751</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>1915.475255393181</v>
       </c>
       <c r="W32" t="n">
-        <v>1662.48357412947</v>
+        <v>1562.706600123066</v>
       </c>
       <c r="X32" t="n">
-        <v>1662.48357412947</v>
+        <v>1189.240841861987</v>
       </c>
       <c r="Y32" t="n">
-        <v>1662.48357412947</v>
+        <v>799.1015098861748</v>
       </c>
     </row>
     <row r="33">
@@ -6795,7 +6795,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>529.7758821321495</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>529.7758821321495</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
         <v>53.94298182036446</v>
@@ -6862,46 +6862,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T34" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U34" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V34" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W34" t="n">
-        <v>698.7120650600564</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X34" t="n">
-        <v>698.7120650600564</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y34" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1233.480863147839</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C35" t="n">
-        <v>864.5183462074274</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D35" t="n">
-        <v>864.5183462074274</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E35" t="n">
-        <v>864.5183462074274</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F35" t="n">
-        <v>864.5183462074274</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G35" t="n">
-        <v>446.5545381056143</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>119.3598181416171</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036446</v>
@@ -6962,25 +6962,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>1620.080703211961</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y35" t="n">
-        <v>1620.080703211961</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2153.047432775375</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>2153.047432775375</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
         <v>2022.963088632153</v>
@@ -7123,22 +7123,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018223</v>
+        <v>2566.821187183472</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018223</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V37" t="n">
-        <v>2442.464602812336</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W37" t="n">
-        <v>2153.047432775375</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X37" t="n">
-        <v>2153.047432775375</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y37" t="n">
-        <v>2153.047432775375</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.94416071721</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776798</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.981643776798</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1933911785536</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F38" t="n">
-        <v>381.2074863889461</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036446</v>
@@ -7175,10 +7175,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7202,22 +7202,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2654.16677016476</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2654.16677016476</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018223</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018223</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>2323.103882821189</v>
       </c>
     </row>
     <row r="39">
@@ -7269,7 +7269,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>579.9823256406185</v>
+        <v>2328.624554782016</v>
       </c>
       <c r="C40" t="n">
-        <v>579.9823256406185</v>
+        <v>2328.624554782016</v>
       </c>
       <c r="D40" t="n">
-        <v>429.8656862282827</v>
+        <v>2328.624554782016</v>
       </c>
       <c r="E40" t="n">
-        <v>380.6911546495019</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="F40" t="n">
-        <v>380.6911546495019</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>579.9823256406185</v>
+        <v>2583.309042987903</v>
       </c>
       <c r="T40" t="n">
-        <v>579.9823256406185</v>
+        <v>2583.309042987903</v>
       </c>
       <c r="U40" t="n">
-        <v>579.9823256406185</v>
+        <v>2583.309042987903</v>
       </c>
       <c r="V40" t="n">
-        <v>579.9823256406185</v>
+        <v>2328.624554782016</v>
       </c>
       <c r="W40" t="n">
-        <v>579.9823256406185</v>
+        <v>2328.624554782016</v>
       </c>
       <c r="X40" t="n">
-        <v>579.9823256406185</v>
+        <v>2328.624554782016</v>
       </c>
       <c r="Y40" t="n">
-        <v>579.9823256406185</v>
+        <v>2328.624554782016</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1577.945354755379</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.982837814967</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082163</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036446</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036446</v>
@@ -7412,49 +7412,49 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>2354.684526795312</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1964.5451948195</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7500,13 +7500,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>257.1154545468208</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>257.1154545468208</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036446</v>
@@ -7573,46 +7573,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T43" t="n">
-        <v>257.1154545468208</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U43" t="n">
-        <v>257.1154545468208</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V43" t="n">
-        <v>257.1154545468208</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W43" t="n">
-        <v>257.1154545468208</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X43" t="n">
-        <v>257.1154545468208</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>257.1154545468208</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.94416071721</v>
+        <v>1865.381229508783</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776798</v>
+        <v>1496.418712568371</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.981643776798</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1933911785536</v>
+        <v>752.3647613633761</v>
       </c>
       <c r="F44" t="n">
-        <v>381.2074863889461</v>
+        <v>341.3788565737686</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036446</v>
@@ -7649,10 +7649,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="45">
@@ -7737,13 +7737,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
         <v>53.94298182036446</v>
@@ -7810,46 +7810,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U46" t="n">
-        <v>222.8791647482714</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V46" t="n">
-        <v>222.8791647482714</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028834</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9012,7 +9012,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>251.4045252050814</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>260.7615551004087</v>
+        <v>15.93318254099034</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>157.7848504166383</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22717,16 +22717,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>11.99007165458446</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22756,10 +22756,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22790,7 +22790,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22832,19 +22832,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>157.9771136458844</v>
       </c>
       <c r="W5" t="n">
-        <v>188.3994869875289</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22948,13 +22948,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>129.3012843462389</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22963,7 +22963,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,16 +22984,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>207.5382046601851</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -23033,7 +23033,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>402.3930806959344</v>
+        <v>402.3930806959349</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23185,10 +23185,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F10" t="n">
-        <v>128.2883697226009</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>90.29705704176439</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,25 +23303,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>14.65925904419294</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,25 +23419,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>10.74592769735753</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>86.05160619575682</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>144.2707130727114</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23662,10 +23662,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>10.74592769735753</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>11.99007165458423</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23911,7 +23911,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>35.43826180874018</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>58.23741346252899</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24032,10 +24032,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,13 +24142,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>86.13669930686558</v>
       </c>
       <c r="U22" t="n">
-        <v>38.22219630222429</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,22 +24206,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>15.75279013640062</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24266,7 +24266,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>25.24910919451753</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24364,28 +24364,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>27.87349296370135</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,13 +24406,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>190.4039922702972</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>114.3255010248227</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>122.965735932926</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>123.9289676594879</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24622,7 +24622,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24655,10 +24655,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>96.68503059263375</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24686,13 +24686,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049789928</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,10 +24725,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -24737,10 +24737,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>145.4867104013621</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24859,7 +24859,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,10 +24917,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>17.13900603568936</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24935,7 +24935,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,13 +24962,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>21.56764906729066</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24977,13 +24977,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25075,28 +25075,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>133.8057042310862</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25117,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25135,13 +25135,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551381</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25160,19 +25160,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>87.16864828682114</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25202,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25220,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25315,7 +25315,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>19.83197231642248</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25333,7 +25333,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,22 +25357,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168084</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,10 +25403,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>173.8958227127293</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25552,16 +25552,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>97.75117638357615</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25570,7 +25570,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>99.44389140000226</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25606,7 +25606,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789968</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25691,7 +25691,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>114.7845272780714</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25807,7 +25807,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,22 +25828,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168084</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>89.79231049789928</v>
+        <v>129.222654014925</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,22 +26068,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>11.11965843648056</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>722881.5250393944</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="C2" t="n">
         <v>289152.6100157574</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="E2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="G2" t="n">
         <v>289152.6100157577</v>
       </c>
-      <c r="E2" t="n">
-        <v>289152.6100157577</v>
-      </c>
-      <c r="F2" t="n">
-        <v>289152.6100157577</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="H2" t="n">
-        <v>289152.6100157577</v>
-      </c>
       <c r="I2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="J2" t="n">
         <v>289152.6100157574</v>
@@ -26341,19 +26341,19 @@
         <v>289152.6100157577</v>
       </c>
       <c r="L2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="M2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="N2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="O2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="P2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157576</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145448</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.1084990597037</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="C4" t="n">
-        <v>513.1084990597037</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="D4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="E4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
         <v>513.1084990597035</v>
@@ -26442,13 +26442,13 @@
         <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
@@ -26457,7 +26457,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="F5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="F5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340947</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384187.4557612565</v>
+        <v>-384187.455761256</v>
       </c>
       <c r="C6" t="n">
+        <v>205780.4234532883</v>
+      </c>
+      <c r="D6" t="n">
         <v>205780.4234532884</v>
       </c>
-      <c r="D6" t="n">
-        <v>205780.4234532885</v>
-      </c>
       <c r="E6" t="n">
-        <v>239408.0234532885</v>
+        <v>239408.0234532884</v>
       </c>
       <c r="F6" t="n">
-        <v>239408.0234532885</v>
+        <v>239408.0234532884</v>
       </c>
       <c r="G6" t="n">
         <v>239408.0234532885</v>
@@ -26540,10 +26540,10 @@
         <v>239408.0234532885</v>
       </c>
       <c r="I6" t="n">
-        <v>239408.0234532885</v>
+        <v>239408.0234532884</v>
       </c>
       <c r="J6" t="n">
-        <v>62984.8042606952</v>
+        <v>62984.80426069521</v>
       </c>
       <c r="K6" t="n">
         <v>239408.0234532886</v>
@@ -26552,16 +26552,16 @@
         <v>239408.0234532883</v>
       </c>
       <c r="M6" t="n">
-        <v>239408.0234532884</v>
+        <v>239408.0234532883</v>
       </c>
       <c r="N6" t="n">
-        <v>239408.0234532884</v>
+        <v>239408.0234532883</v>
       </c>
       <c r="O6" t="n">
         <v>239408.0234532884</v>
       </c>
       <c r="P6" t="n">
-        <v>239408.0234532885</v>
+        <v>239408.0234532884</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="E4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="F4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="E4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545557</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31045,43 +31045,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>195.5988322391992</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31221,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653259</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,19 +31756,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31783,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,22 +31829,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>11.76595806653279</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>132.99849770713</v>
       </c>
       <c r="M12" t="n">
         <v>205.8702969983122</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31932,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31993,19 +31993,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630665</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32020,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32169,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32230,19 +32230,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32257,13 +32257,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32330,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32406,16 +32406,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32467,19 +32467,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32491,16 +32491,16 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32564,25 +32564,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32643,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32704,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32731,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,22 +32777,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M24" t="n">
         <v>205.8702969983122</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32880,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32941,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32968,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33035,28 +33035,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N27" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O27" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33093,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33117,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33178,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727438</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33205,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33269,7 +33269,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M30" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576419</v>
       </c>
       <c r="N30" t="n">
         <v>211.31907117367</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33354,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33415,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33442,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>111.7343803072874</v>
       </c>
       <c r="Q33" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33591,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33652,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33679,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33743,7 +33743,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576419</v>
       </c>
       <c r="N36" t="n">
         <v>211.31907117367</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33828,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,22 +33889,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O38" t="n">
         <v>255.8615389119866</v>
@@ -33916,13 +33916,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33989,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34065,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34126,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34153,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34226,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34302,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34363,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.167479908158</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34390,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34539,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>543.5994944994194</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932201</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435297</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35732,19 +35732,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>289.2671274730079</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36139,7 +36139,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,16 +36209,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,16 +36683,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36917,19 +36917,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37157,16 +37157,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37391,19 +37391,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,16 +37631,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37868,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343422</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,16 +38105,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1238791.943495761</v>
+        <v>1267636.254250488</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116250.3695341525</v>
+        <v>110486.2941236462</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>9102620.618728811</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8358767.937462306</v>
+        <v>8358767.937462307</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>349.3397092300172</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>20.4649584813955</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -838,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>33.20988753395254</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>19.52128082800898</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>169.7751448242505</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,7 +992,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.37682225755661</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1075,7 +1077,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>17.49690079789916</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.39108932486009</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>316.578988699947</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>70.11928264603833</v>
+        <v>99.34508049624269</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>13.75048056320835</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>269.513456948084</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1774,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>155.3197306044667</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>22.75446130335949</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>22.35153719005456</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>69.0708624534348</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>355.546756558266</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>138.8984061512187</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,22 +2320,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>398.0313798843944</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.4363092953496</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>117.1365314849862</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>342.4184729901046</v>
       </c>
       <c r="H26" t="n">
-        <v>209.5972717395344</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2713,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>83.52829397039039</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2734,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2764,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>189.596843649344</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>182.2655480687728</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.8179123113441</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>194.8806712903671</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3190,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>82.27111068693216</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>223.1498336210772</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,16 +3271,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>269.513456948084</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>321.7064610691122</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3475,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>42.55249764492844</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3667,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>141.3236091729815</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>112.7016475500166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228953</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>284.5615160058697</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>41.65592056208442</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>190.2713935802969</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>284.56151600587</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2307.009759042411</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>401.8093770180944</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>74.61465705409728</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y2" t="n">
-        <v>2307.009759042411</v>
+        <v>819.7731851199076</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5654064942401</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>550.5654064942401</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>381.5656062325725</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>223.8172336651026</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>87.48832276375086</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.425425970681</v>
+        <v>554.3221432721093</v>
       </c>
       <c r="C5" t="n">
-        <v>951.4629090302697</v>
+        <v>554.3221432721093</v>
       </c>
       <c r="D5" t="n">
-        <v>593.1972104235191</v>
+        <v>554.3221432721093</v>
       </c>
       <c r="E5" t="n">
-        <v>207.4089578252748</v>
+        <v>554.3221432721093</v>
       </c>
       <c r="F5" t="n">
-        <v>207.4089578252748</v>
+        <v>554.3221432721093</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4598,19 +4600,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2470.630356271695</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W5" t="n">
-        <v>2470.630356271695</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X5" t="n">
-        <v>2097.164598010615</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y5" t="n">
-        <v>1707.025266034803</v>
+        <v>940.9219833362311</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,34 +4655,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C7" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D7" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="E7" t="n">
-        <v>348.0202652891861</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W7" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X7" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>546.109828622464</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>546.109828622464</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>546.109828622464</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E8" t="n">
-        <v>546.109828622464</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F8" t="n">
-        <v>546.109828622464</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.109828622464</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4908,16 +4910,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1272.344242153658</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C11" t="n">
-        <v>1272.344242153658</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D11" t="n">
-        <v>1272.344242153658</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E11" t="n">
-        <v>1272.344242153658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5042,16 +5044,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W11" t="n">
-        <v>1662.48357412947</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X11" t="n">
-        <v>1662.48357412947</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y11" t="n">
-        <v>1272.344242153658</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="12">
@@ -5124,22 +5126,22 @@
         <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D13" t="n">
-        <v>578.0123447940985</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E13" t="n">
-        <v>430.0992512117053</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F13" t="n">
-        <v>430.0992512117053</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G13" t="n">
-        <v>261.0994509500377</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5218,31 +5220,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.915471247703</v>
+        <v>962.1597273639309</v>
       </c>
       <c r="C14" t="n">
-        <v>1122.952954307291</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="D14" t="n">
-        <v>1122.952954307291</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E14" t="n">
-        <v>737.1647017090468</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F14" t="n">
-        <v>326.1787969194392</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533142</v>
@@ -5282,7 +5284,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5294,10 +5296,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
         <v>2642.120401548716</v>
@@ -5306,22 +5308,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548716</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548716</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.654643287636</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.515311311824</v>
+        <v>976.0491016702019</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C16" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D16" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E16" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F16" t="n">
-        <v>550.5654064942403</v>
+        <v>403.6754589963297</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>234.6756587346621</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>76.92728616719222</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5443,43 +5445,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T16" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U16" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V16" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W16" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X16" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y16" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5595,10 +5597,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M18" t="n">
         <v>1194.968834417902</v>
@@ -5613,28 +5615,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5695,19 +5697,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W19" t="n">
         <v>53.94298182036445</v>
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1937.083492693021</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C20" t="n">
-        <v>1568.120975752609</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D20" t="n">
-        <v>1209.855277145859</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E20" t="n">
-        <v>824.0670245476144</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F20" t="n">
-        <v>413.0811197580069</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y20" t="n">
-        <v>2323.683332757143</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2408.70101209764</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2408.70101209764</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V22" t="n">
-        <v>2408.70101209764</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W22" t="n">
-        <v>2408.70101209764</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X22" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1194.175505447095</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>1194.175505447095</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>1194.175505447095</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E23" t="n">
-        <v>1194.175505447095</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F23" t="n">
-        <v>783.1896006574873</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5987,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6026,13 +6028,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>1970.914677487028</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1580.775345511217</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
         <v>1194.968834417902</v>
@@ -6087,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2482.860667836385</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C25" t="n">
-        <v>2313.924484908478</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="D25" t="n">
-        <v>2163.807845496142</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="E25" t="n">
-        <v>2163.807845496142</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="F25" t="n">
-        <v>2163.807845496142</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>2482.860667836385</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X25" t="n">
-        <v>2482.860667836385</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y25" t="n">
-        <v>2482.860667836385</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1838.661061815299</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C26" t="n">
-        <v>1838.661061815299</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="D26" t="n">
-        <v>1480.395363208549</v>
+        <v>1523.789104616764</v>
       </c>
       <c r="E26" t="n">
-        <v>1094.607110610305</v>
+        <v>1138.000852018519</v>
       </c>
       <c r="F26" t="n">
-        <v>683.6212058206972</v>
+        <v>727.0149472289118</v>
       </c>
       <c r="G26" t="n">
-        <v>265.6573977188841</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6254,22 +6256,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>1838.661061815299</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>1838.661061815299</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.447464661593</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
         <v>2525.076107152626</v>
@@ -6348,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>2300.904720758917</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>2300.904720758917</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>2152.991627176524</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>2152.991627176524</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U28" t="n">
-        <v>536.6170209242687</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="V28" t="n">
-        <v>281.9325327183818</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="W28" t="n">
-        <v>281.9325327183818</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>2469.840903686824</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>833.8914035503838</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C29" t="n">
-        <v>464.928886609972</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D29" t="n">
-        <v>464.928886609972</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2336.864989121511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1984.096333851397</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>1610.630575590317</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1220.491243614505</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6537,10 +6539,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
         <v>309.190302261463</v>
@@ -6549,16 +6551,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>344.8407607629293</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>187.0923881954595</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6628,43 +6630,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610023</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V31" t="n">
-        <v>184.2708856551154</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>799.1015098861748</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C32" t="n">
-        <v>799.1015098861748</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D32" t="n">
-        <v>799.1015098861748</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E32" t="n">
-        <v>799.1015098861748</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
@@ -6722,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2500.29992809866</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2246.538142736751</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>1915.475255393181</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>1562.706600123066</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>1189.240841861987</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y32" t="n">
-        <v>799.1015098861748</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>129.200144220494</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P33" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036446</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036446</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036446</v>
+        <v>2547.032451605887</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036446</v>
+        <v>2547.032451605887</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>2400.142504107976</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W34" t="n">
-        <v>502.7251118619119</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X34" t="n">
-        <v>274.7355609638946</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036446</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247703</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.952954307291</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D35" t="n">
-        <v>1122.952954307291</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E35" t="n">
-        <v>737.1647017090468</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F35" t="n">
-        <v>326.1787969194392</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
@@ -6974,13 +6976,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287636</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7013,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
         <v>1194.968834417902</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2566.821187183472</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2277.64757683804</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632153</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2323.103882821189</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>1954.141365880777</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D38" t="n">
-        <v>1595.875667274027</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E38" t="n">
-        <v>1210.087414675782</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F38" t="n">
-        <v>799.1015098861748</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
@@ -7184,40 +7186,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2654.16677016476</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2654.16677016476</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2323.103882821189</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2323.103882821189</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.103882821189</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>2323.103882821189</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7250,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7260,16 +7262,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2328.624554782016</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="C40" t="n">
-        <v>2328.624554782016</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="D40" t="n">
-        <v>2328.624554782016</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="E40" t="n">
-        <v>2180.711461199623</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="F40" t="n">
-        <v>2180.711461199623</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="G40" t="n">
-        <v>2180.711461199623</v>
+        <v>2165.714209008902</v>
       </c>
       <c r="H40" t="n">
         <v>2022.963088632153</v>
@@ -7336,46 +7338,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018223</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S40" t="n">
-        <v>2583.309042987903</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T40" t="n">
-        <v>2583.309042987903</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="U40" t="n">
-        <v>2583.309042987903</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="V40" t="n">
-        <v>2328.624554782016</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="W40" t="n">
-        <v>2328.624554782016</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="X40" t="n">
-        <v>2328.624554782016</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="Y40" t="n">
-        <v>2328.624554782016</v>
+        <v>2334.714009270569</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776797</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776797</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785532</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>129.200144220494</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O42" t="n">
         <v>2188.831293537797</v>
@@ -7509,22 +7511,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>96.01966925681336</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>96.01966925681336</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>96.01966925681336</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7578,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750361</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>308.6274700262513</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036446</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>246.1363086691491</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1865.381229508783</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C44" t="n">
-        <v>1496.418712568371</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D44" t="n">
-        <v>1138.15301396162</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E44" t="n">
-        <v>752.3647613633761</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F44" t="n">
-        <v>341.3788565737686</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7664,34 +7666,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>2642.120401548716</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>2251.981069572904</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7743,25 +7745,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2627.754532504894</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>598.044640063212</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10443,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11148,10 +11150,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,16 +22549,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>15.93318254099034</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>131.4663577634657</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22597,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,10 +22713,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22726,7 +22728,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.99007165458446</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22784,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>394.262889192786</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22838,13 +22840,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>157.9771136458844</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22948,13 +22950,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22963,7 +22965,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,13 +22989,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>207.5382046601851</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>402.3930806959349</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23185,19 +23187,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114811</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>90.29705704176439</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.2802725817785</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>86.05160619575682</v>
+        <v>56.82580834555246</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>368.9833611002722</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>144.270713072711</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>11.99007165458423</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>112.2111604889787</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>296.2020293175727</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>58.23741346252899</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24142,7 +24144,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
@@ -24172,19 +24174,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>86.13669930686558</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>15.75279013640062</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24364,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>27.87349296370135</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>17.82909030735199</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24455,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>71.3656970306904</v>
       </c>
       <c r="H26" t="n">
-        <v>114.3255010248227</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24494,19 +24496,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24601,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>83.78150828866052</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24622,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24652,19 +24654,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>96.68503059263375</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24686,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24728,7 +24730,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -24737,10 +24739,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>145.4867104013621</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>3.147709480994166</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24886,19 +24888,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>157.4983735401876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>21.56764906729066</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25078,25 +25080,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>85.03869157211875</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25135,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>63.37316471551381</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25157,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>144.270713072711</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25214,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>27.53450764830086</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25330,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25363,22 +25365,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>96.01048066168084</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>173.8958227127293</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25555,22 +25557,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>14.84727966881366</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>99.44389140000226</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25606,7 +25608,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049789968</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>125.6538816969665</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>96.01048066168084</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>129.222654014925</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25928,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26041,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.525039394</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="C2" t="n">
         <v>289152.6100157574</v>
       </c>
       <c r="D2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="E2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="F2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="G2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="H2" t="n">
+        <v>289152.6100157573</v>
+      </c>
+      <c r="I2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="G2" t="n">
-        <v>289152.6100157577</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>289152.6100157573</v>
+      </c>
+      <c r="K2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>289152.6100157575</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="N2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="O2" t="n">
         <v>289152.6100157574</v>
-      </c>
-      <c r="K2" t="n">
-        <v>289152.6100157577</v>
-      </c>
-      <c r="L2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="M2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289152.6100157576</v>
       </c>
       <c r="P2" t="n">
         <v>289152.6100157576</v>
@@ -26442,13 +26444,13 @@
         <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
@@ -26457,7 +26459,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,7 +26481,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26491,25 +26493,25 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26527,43 @@
         <v>205780.4234532883</v>
       </c>
       <c r="D6" t="n">
-        <v>205780.4234532884</v>
+        <v>205780.4234532883</v>
       </c>
       <c r="E6" t="n">
         <v>239408.0234532884</v>
       </c>
       <c r="F6" t="n">
+        <v>239408.0234532882</v>
+      </c>
+      <c r="G6" t="n">
         <v>239408.0234532884</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>239408.0234532882</v>
+      </c>
+      <c r="I6" t="n">
         <v>239408.0234532885</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>62984.80426069515</v>
+      </c>
+      <c r="K6" t="n">
         <v>239408.0234532885</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>239408.0234532884</v>
       </c>
-      <c r="J6" t="n">
-        <v>62984.80426069521</v>
-      </c>
-      <c r="K6" t="n">
-        <v>239408.0234532886</v>
-      </c>
-      <c r="L6" t="n">
-        <v>239408.0234532883</v>
-      </c>
       <c r="M6" t="n">
-        <v>239408.0234532883</v>
+        <v>239408.0234532884</v>
       </c>
       <c r="N6" t="n">
-        <v>239408.0234532883</v>
+        <v>239408.0234532885</v>
       </c>
       <c r="O6" t="n">
-        <v>239408.0234532884</v>
+        <v>239408.0234532882</v>
       </c>
       <c r="P6" t="n">
-        <v>239408.0234532884</v>
+        <v>239408.0234532885</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26790,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26799,7 +26801,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26811,25 +26813,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31145,7 +31147,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31604,7 +31606,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31844,7 +31846,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>132.99849770713</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
         <v>205.8702969983122</v>
@@ -31859,7 +31861,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R12" t="n">
         <v>50.44659727034982</v>
@@ -32315,7 +32317,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
@@ -32491,7 +32493,7 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
         <v>95.39071536633797</v>
@@ -32549,7 +32551,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32564,7 +32566,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479577</v>
@@ -32786,13 +32788,13 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
         <v>205.8702969983122</v>
@@ -33023,7 +33025,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33035,13 +33037,13 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N27" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O27" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>111.7343803072874</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
@@ -33181,13 +33183,13 @@
         <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
-        <v>128.8865178727438</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
         <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M29" t="n">
         <v>266.6471645405367</v>
@@ -33260,7 +33262,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33269,7 +33271,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M30" t="n">
-        <v>162.4518126576419</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N30" t="n">
         <v>211.31907117367</v>
@@ -33409,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>111.7343803072874</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33743,7 +33745,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M36" t="n">
-        <v>162.4518126576419</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N36" t="n">
         <v>211.31907117367</v>
@@ -33758,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33904,25 +33906,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33980,7 +33982,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N39" t="n">
         <v>211.31907117367</v>
@@ -33995,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,19 +34359,19 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.167479908158</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
         <v>239.6413398630669</v>
@@ -34381,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34793,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35492,7 +35494,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
@@ -35507,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35732,7 +35734,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
@@ -35744,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,10 +35965,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L18" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
@@ -36139,7 +36141,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36212,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M29" t="n">
         <v>485.8144648060965</v>
@@ -36917,7 +36919,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338902</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37160,10 +37162,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
-        <v>296.2227415328944</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37318,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M36" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37552,13 +37554,13 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37628,19 +37630,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37792,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,10 +37870,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343422</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
         <v>421.5361394435301</v>
@@ -38029,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38108,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1267636.254250488</v>
+        <v>1216316.592906121</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110486.2941236462</v>
+        <v>1666.345327053976</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8358767.937462307</v>
+        <v>8358767.937462306</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>20.4649584813955</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>365.0430756163835</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>86.88462298447467</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>19.52128082800898</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>273.749913236443</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755661</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>155.2224973225649</v>
       </c>
     </row>
     <row r="9">
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>9.275596830496628</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>44.15180985493053</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>26.94389492651078</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>99.34508049624269</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>49.43931059510365</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.75048056320835</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="I16" t="n">
-        <v>22.75446130335949</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>292.6412401928958</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>22.35153719005456</v>
+        <v>201.0891638436807</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>69.0708624534348</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.264003285459112</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2323,16 +2323,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>114.4476313097775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>117.1365314849862</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>174.9119335969208</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>100.3351239134694</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>342.4184729901046</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,19 +2724,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>83.52829397039039</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>52.10844059186277</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>39.51885255793375</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.8179123113441</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>150.776110736128</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>82.27111068693216</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>173.9313784350751</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3271,16 +3271,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>323.9918595228962</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>321.7064610691122</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3362,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>6.390346842435584</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>9.012067248101072</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>141.3236091729815</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>236.713950060096</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>323.9918595228966</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>284.5615160058697</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>41.65592056208442</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>25.31590541686297</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>323.9918595228954</v>
+        <v>269.5134569480849</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>155.2114886365814</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819.7731851199076</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C2" t="n">
-        <v>819.7731851199076</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D2" t="n">
-        <v>819.7731851199076</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>819.7731851199076</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>819.7731851199076</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>401.8093770180944</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>74.61465705409728</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X2" t="n">
-        <v>1209.912517095719</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>819.7731851199076</v>
+        <v>1954.952953346655</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4427,25 +4427,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>141.7052272592278</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>141.7052272592278</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.3221432721093</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C5" t="n">
-        <v>554.3221432721093</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>554.3221432721093</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>554.3221432721093</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>554.3221432721093</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843237</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573123</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312043</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362311</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>598.044640063212</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064343</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.981643776797</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4910,16 +4910,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>99.59950625323012</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1166.959449965771</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C11" t="n">
-        <v>797.9969330253591</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="D11" t="n">
-        <v>439.7312344186087</v>
+        <v>1222.509646904467</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>836.7213943062222</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>425.7354895166147</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>425.7354895166147</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>98.54076955261752</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5056,37 +5056,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U11" t="n">
-        <v>2669.933035536898</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V11" t="n">
-        <v>2669.933035536898</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W11" t="n">
-        <v>2317.164380266784</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X11" t="n">
-        <v>1943.698622005704</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y11" t="n">
-        <v>1553.559290029893</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="12">
@@ -5111,34 +5111,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="C13" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="D13" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E13" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F13" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G13" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U13" t="n">
-        <v>336.2769833124028</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V13" t="n">
-        <v>336.2769833124028</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W13" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="X13" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="Y13" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323009</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>962.1597273639309</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C14" t="n">
-        <v>593.1972104235191</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D14" t="n">
-        <v>593.1972104235191</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E14" t="n">
-        <v>207.4089578252748</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F14" t="n">
-        <v>207.4089578252748</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5284,13 +5284,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2092.422847177208</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>1739.654191907093</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>1366.188433646014</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y14" t="n">
-        <v>976.0491016702019</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>550.5654064942401</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E16" t="n">
-        <v>550.5654064942401</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F16" t="n">
-        <v>403.6754589963297</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6756587346621</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H16" t="n">
-        <v>76.92728616719222</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5457,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776797</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5518,10 +5518,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
         <v>1194.968834417902</v>
@@ -5615,28 +5615,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5697,28 +5697,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>343.1165921657965</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="U19" t="n">
-        <v>53.94298182036445</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="20">
@@ -5731,40 +5731,40 @@
         <v>1491.915471247702</v>
       </c>
       <c r="C20" t="n">
-        <v>1422.14692331494</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D20" t="n">
-        <v>1422.14692331494</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E20" t="n">
-        <v>1036.358670716696</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
         <v>53.94298182036445</v>
@@ -5943,19 +5943,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776797</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.981643776797</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5992,16 +5992,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6019,22 +6019,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2581.545423028548</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2327.78363766664</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036423</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6089,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>217.9192350259435</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="C25" t="n">
-        <v>217.9192350259435</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D25" t="n">
-        <v>217.9192350259435</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E25" t="n">
-        <v>217.9192350259435</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F25" t="n">
-        <v>217.9192350259435</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G25" t="n">
-        <v>217.9192350259435</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H25" t="n">
-        <v>217.9192350259435</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="W25" t="n">
-        <v>438.7118141694736</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="X25" t="n">
-        <v>438.7118141694736</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.9192350259435</v>
+        <v>337.1618402196266</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.054803223514</v>
+        <v>942.2179168761947</v>
       </c>
       <c r="C26" t="n">
-        <v>1882.054803223514</v>
+        <v>573.2553999357831</v>
       </c>
       <c r="D26" t="n">
-        <v>1523.789104616764</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E26" t="n">
-        <v>1138.000852018519</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F26" t="n">
-        <v>727.0149472289118</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6256,22 +6256,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.654643287636</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y26" t="n">
-        <v>2268.654643287636</v>
+        <v>1328.817756940316</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
         <v>2525.076107152626</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2469.840903686824</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="C28" t="n">
-        <v>2300.904720758917</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="D28" t="n">
-        <v>2300.904720758917</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E28" t="n">
-        <v>2152.991627176524</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F28" t="n">
-        <v>2152.991627176524</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G28" t="n">
-        <v>2068.619613065019</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H28" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X28" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y28" t="n">
-        <v>2469.840903686824</v>
+        <v>675.4941957298054</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>504.8469194967738</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785532</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6463,19 +6463,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6499,16 +6499,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>344.8407607629293</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>187.0923881954595</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
         <v>53.94298182036445</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V31" t="n">
-        <v>513.8405610245969</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.915471247702</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.952954307291</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D32" t="n">
-        <v>1122.952954307291</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E32" t="n">
-        <v>737.1647017090463</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>326.1787969194388</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
@@ -6739,13 +6739,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>2642.120401548716</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.654643287636</v>
+        <v>1915.885988017522</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.515311311824</v>
+        <v>1915.885988017522</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J33" t="n">
-        <v>129.200144220494</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615926</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2697.149091018222</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C34" t="n">
-        <v>2697.149091018222</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D34" t="n">
-        <v>2547.032451605887</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E34" t="n">
-        <v>2547.032451605887</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F34" t="n">
-        <v>2400.142504107976</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G34" t="n">
-        <v>2317.040372100974</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H34" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018222</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018222</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1166.959449965771</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C35" t="n">
-        <v>797.9969330253591</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D35" t="n">
-        <v>439.7312344186087</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94298182036445</v>
+        <v>792.1933911785541</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889465</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>2317.164380266784</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X35" t="n">
-        <v>1943.698622005704</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1553.559290029893</v>
+        <v>1933.544000781332</v>
       </c>
     </row>
     <row r="36">
@@ -7007,22 +7007,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M36" t="n">
         <v>1194.968834417902</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>398.333860810379</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>229.397677882472</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>229.397677882472</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>229.397677882472</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>229.397677882472</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>60.39787762080445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="W37" t="n">
-        <v>438.7118141694736</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="X37" t="n">
-        <v>210.7222632714563</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406187</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1646.746562480846</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776797</v>
+        <v>1277.784045540435</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.981643776797</v>
+        <v>1277.784045540435</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1933911785532</v>
+        <v>891.9957929421903</v>
       </c>
       <c r="F38" t="n">
-        <v>381.2074863889456</v>
+        <v>481.0098881525827</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>63.0460800507696</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O38" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.48573452078</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.48573452078</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.48573452078</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.48573452078</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>2423.48573452078</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>2033.346402544968</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641982</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598701</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2334.714009270569</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="C40" t="n">
-        <v>2334.714009270569</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D40" t="n">
-        <v>2334.714009270569</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E40" t="n">
-        <v>2334.714009270569</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F40" t="n">
-        <v>2334.714009270569</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G40" t="n">
-        <v>2165.714209008902</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R40" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S40" t="n">
-        <v>2334.714009270569</v>
+        <v>513.8405610245976</v>
       </c>
       <c r="T40" t="n">
-        <v>2334.714009270569</v>
+        <v>513.8405610245976</v>
       </c>
       <c r="U40" t="n">
-        <v>2334.714009270569</v>
+        <v>513.8405610245976</v>
       </c>
       <c r="V40" t="n">
-        <v>2334.714009270569</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W40" t="n">
-        <v>2334.714009270569</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X40" t="n">
-        <v>2334.714009270569</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y40" t="n">
-        <v>2334.714009270569</v>
+        <v>53.94298182036448</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1577.945354755378</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.982837814967</v>
+        <v>1177.981643776799</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082162</v>
+        <v>1177.981643776799</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>792.1933911785545</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.207486388947</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733124</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M41" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O41" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="X41" t="n">
-        <v>2354.684526795312</v>
+        <v>2323.683332757144</v>
       </c>
       <c r="Y41" t="n">
-        <v>1964.5451948195</v>
+        <v>1933.544000781332</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J42" t="n">
-        <v>129.200144220494</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615926</v>
+        <v>266.2060027641982</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598701</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
         <v>2188.831293537797</v>
@@ -7511,22 +7511,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>246.1363086691491</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C43" t="n">
-        <v>246.1363086691491</v>
+        <v>351.9727148150934</v>
       </c>
       <c r="D43" t="n">
-        <v>96.01966925681336</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E43" t="n">
-        <v>96.01966925681336</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F43" t="n">
-        <v>96.01966925681336</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T43" t="n">
-        <v>500.820796875036</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U43" t="n">
-        <v>500.820796875036</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V43" t="n">
-        <v>246.1363086691491</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W43" t="n">
-        <v>246.1363086691491</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X43" t="n">
-        <v>246.1363086691491</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y43" t="n">
-        <v>246.1363086691491</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247704</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307292</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307292</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1933911785532</v>
+        <v>737.1647017090477</v>
       </c>
       <c r="F44" t="n">
-        <v>381.2074863889456</v>
+        <v>326.1787969194401</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287637</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311825</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U46" t="n">
-        <v>598.0446400632119</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10445,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -11153,7 +11153,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>131.4663577634657</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>21.19486303967005</v>
       </c>
     </row>
     <row r="3">
@@ -22710,25 +22710,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>69.28626585732047</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>394.262889192786</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -22846,10 +22846,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>75.49105548096998</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22950,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,22 +22989,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629406</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -23080,16 +23080,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>231.0154413334887</v>
       </c>
     </row>
     <row r="9">
@@ -23202,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>277.0062774114811</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>107.7795063899307</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23314,7 +23314,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>224.2802725817785</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23433,10 +23433,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>56.82580834555246</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>202.6983327287244</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>368.9833611002722</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>64.16285195963718</v>
       </c>
       <c r="I16" t="n">
-        <v>112.2111604889787</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>45.199959188537</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>90.09260147058478</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23791,7 +23791,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,22 +23937,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>202.6835682680297</v>
+        <v>23.94594161440355</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>296.2020293175727</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>178.5679768964782</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24183,10 +24183,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>96.68503059263386</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24211,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>102.0006890478803</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>17.82909030735199</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24423,16 +24423,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>77.22570972690716</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>254.3479177072135</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>71.3656970306904</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24496,13 +24496,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,19 +24612,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>83.78150828866052</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>166.476212760232</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>342.411517514328</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24739,10 +24739,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>3.147709480994166</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>231.9577309273526</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>85.03869157211875</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25134,7 +25134,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>78.20626488875286</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789882</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>27.53450764830086</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>149.7805419993595</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>314.9107055162561</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25563,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>14.84727966881366</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>15.42369326373205</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789837</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>85.16958467259929</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>125.6538816969665</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>199.7192000412213</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>89.79231049789962</v>
+        <v>144.2707130727101</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,28 +26067,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>69.82361682150292</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393944</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="C2" t="n">
         <v>289152.6100157574</v>
@@ -26325,37 +26325,37 @@
         <v>289152.6100157576</v>
       </c>
       <c r="F2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="G2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="H2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="I2" t="n">
         <v>289152.6100157573</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>289152.6100157576</v>
-      </c>
-      <c r="J2" t="n">
-        <v>289152.6100157573</v>
       </c>
       <c r="K2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="L2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="M2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="N2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="O2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="P2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157577</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="E4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="F4" t="n">
         <v>513.1084990597035</v>
@@ -26447,19 +26447,19 @@
         <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597037</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597037</v>
       </c>
       <c r="N4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597037</v>
       </c>
       <c r="O4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597037</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597037</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340947</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26493,25 +26493,25 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384187.455761256</v>
+        <v>-390255.8695070755</v>
       </c>
       <c r="C6" t="n">
-        <v>205780.4234532883</v>
+        <v>199712.0097074691</v>
       </c>
       <c r="D6" t="n">
-        <v>205780.4234532883</v>
+        <v>199712.009707469</v>
       </c>
       <c r="E6" t="n">
-        <v>239408.0234532884</v>
+        <v>233339.6097074692</v>
       </c>
       <c r="F6" t="n">
-        <v>239408.0234532882</v>
+        <v>233339.6097074693</v>
       </c>
       <c r="G6" t="n">
-        <v>239408.0234532884</v>
+        <v>233339.609707469</v>
       </c>
       <c r="H6" t="n">
-        <v>239408.0234532882</v>
+        <v>233339.6097074693</v>
       </c>
       <c r="I6" t="n">
-        <v>239408.0234532885</v>
+        <v>233339.6097074689</v>
       </c>
       <c r="J6" t="n">
-        <v>62984.80426069515</v>
+        <v>56916.39051487617</v>
       </c>
       <c r="K6" t="n">
-        <v>239408.0234532885</v>
+        <v>233339.6097074693</v>
       </c>
       <c r="L6" t="n">
-        <v>239408.0234532884</v>
+        <v>233339.609707469</v>
       </c>
       <c r="M6" t="n">
-        <v>239408.0234532884</v>
+        <v>233339.6097074692</v>
       </c>
       <c r="N6" t="n">
-        <v>239408.0234532885</v>
+        <v>233339.609707469</v>
       </c>
       <c r="O6" t="n">
-        <v>239408.0234532882</v>
+        <v>233339.6097074693</v>
       </c>
       <c r="P6" t="n">
-        <v>239408.0234532885</v>
+        <v>233339.6097074693</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26758,28 +26758,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545557</v>
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26813,25 +26813,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31621,10 +31621,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31758,43 +31758,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P11" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529232</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,25 +31934,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32089,7 +32089,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O15" t="n">
         <v>193.3156655923047</v>
@@ -32314,10 +32314,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>11.76595806653259</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
@@ -32572,7 +32572,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R21" t="n">
         <v>50.44659727034982</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32800,28 +32800,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N24" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O24" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>111.7343803072874</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L30" t="n">
         <v>176.4169820478007</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423922</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N33" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33590,28 +33590,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N34" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N35" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423922</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N36" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33827,28 +33827,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N37" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J38" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423865</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M39" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N39" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L40" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M40" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N40" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S40" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J41" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423865</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N42" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L43" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M43" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S43" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653231</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34538,28 +34538,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P11" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35582,10 +35582,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,7 +35737,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624588</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P33" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37229,10 +37229,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L34" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M34" t="n">
         <v>146.3614835535656</v>
@@ -37241,10 +37241,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O34" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624588</v>
       </c>
       <c r="L36" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L37" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M37" t="n">
         <v>146.3614835535656</v>
@@ -37478,10 +37478,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O37" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624583</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M39" t="n">
-        <v>410.0055067279167</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L40" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M40" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N40" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624583</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O42" t="n">
-        <v>325.1459203262125</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L43" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M43" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N43" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047519</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M46" t="n">
         <v>146.3614835535656</v>
@@ -38189,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
